--- a/openpy_dsse/examples/37NodeIEEE/Results/Results_DSSE_37nodeIEEE.xlsx
+++ b/openpy_dsse/examples/37NodeIEEE/Results/Results_DSSE_37nodeIEEE.xlsx
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999978411167582</v>
+        <v>0.9999978462974438</v>
       </c>
       <c r="D2" t="n">
-        <v>29.99939767230316</v>
+        <v>29.99939760023321</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0009</v>
+        <v>1.0004</v>
       </c>
       <c r="F2" t="n">
         <v>30</v>
@@ -497,16 +497,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9871426607060716</v>
+        <v>0.9871461082672988</v>
       </c>
       <c r="D3" t="n">
-        <v>29.73482024486634</v>
+        <v>29.73463032929338</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9881</v>
+        <v>0.9875</v>
       </c>
       <c r="F3" t="n">
-        <v>29.9997</v>
+        <v>30.0002</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +519,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9802379306847818</v>
+        <v>0.980243517600477</v>
       </c>
       <c r="D4" t="n">
-        <v>29.58521077509182</v>
+        <v>29.5849034281025</v>
       </c>
       <c r="E4" t="n">
-        <v>0.982</v>
+        <v>0.9813</v>
       </c>
       <c r="F4" t="n">
-        <v>30.0069</v>
+        <v>30.0077</v>
       </c>
     </row>
     <row r="5">
@@ -541,16 +541,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9791687263105667</v>
+        <v>0.9791743678300437</v>
       </c>
       <c r="D5" t="n">
-        <v>29.59332016836853</v>
+        <v>29.59300282814636</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9806</v>
+        <v>0.98</v>
       </c>
       <c r="F5" t="n">
-        <v>30.0114</v>
+        <v>30.0173</v>
       </c>
     </row>
     <row r="6">
@@ -563,16 +563,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9785743034773634</v>
+        <v>0.9785802030626806</v>
       </c>
       <c r="D6" t="n">
-        <v>29.57801150647364</v>
+        <v>29.57767244903478</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9802999999999999</v>
+        <v>0.9795</v>
       </c>
       <c r="F6" t="n">
-        <v>30.0002</v>
+        <v>30.0005</v>
       </c>
     </row>
     <row r="7">
@@ -585,16 +585,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9744329013666678</v>
+        <v>0.9744400820520071</v>
       </c>
       <c r="D7" t="n">
-        <v>29.45894643277125</v>
+        <v>29.45855205855314</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9762999999999999</v>
+        <v>0.9756</v>
       </c>
       <c r="F7" t="n">
-        <v>30.0119</v>
+        <v>30.0172</v>
       </c>
     </row>
     <row r="8">
@@ -607,16 +607,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9734960753352565</v>
+        <v>0.9735033024337679</v>
       </c>
       <c r="D8" t="n">
-        <v>29.46728167352494</v>
+        <v>29.46687977199923</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9752</v>
+        <v>0.9728</v>
       </c>
       <c r="F8" t="n">
-        <v>29.9983</v>
+        <v>29.986</v>
       </c>
     </row>
     <row r="9">
@@ -629,16 +629,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.969975961071911</v>
+        <v>0.9699838927662394</v>
       </c>
       <c r="D9" t="n">
-        <v>29.43978507481535</v>
+        <v>29.43931490686414</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9689</v>
+        <v>0.9693000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>29.995</v>
+        <v>29.9969</v>
       </c>
     </row>
     <row r="10">
@@ -651,16 +651,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9765566790206563</v>
+        <v>0.9765629813475247</v>
       </c>
       <c r="D10" t="n">
-        <v>29.56937533714526</v>
+        <v>29.5689951013718</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9782999999999999</v>
+        <v>0.9775</v>
       </c>
       <c r="F10" t="n">
-        <v>30.0008</v>
+        <v>30.0007</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +673,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9764114287033798</v>
+        <v>0.9764177383884384</v>
       </c>
       <c r="D11" t="n">
-        <v>29.57045337983045</v>
+        <v>29.57007168200554</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9781</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>30.0001</v>
       </c>
     </row>
     <row r="12">
@@ -695,13 +695,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9742768095983467</v>
+        <v>0.9742835493041643</v>
       </c>
       <c r="D12" t="n">
-        <v>29.56004471457408</v>
+        <v>29.5596200457214</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9761</v>
+        <v>0.9752999999999999</v>
       </c>
       <c r="F12" t="n">
         <v>30.0043</v>
@@ -717,16 +717,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9787307588708223</v>
+        <v>0.9787364070787736</v>
       </c>
       <c r="D13" t="n">
-        <v>29.59668472361249</v>
+        <v>29.59636570631315</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9787</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>29.972</v>
+        <v>29.958</v>
       </c>
     </row>
     <row r="14">
@@ -739,16 +739,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9788555835579187</v>
+        <v>0.9788612320651877</v>
       </c>
       <c r="D14" t="n">
-        <v>29.59568846296383</v>
+        <v>29.59537015192945</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9791</v>
+        <v>0.9778</v>
       </c>
       <c r="F14" t="n">
-        <v>29.9781</v>
+        <v>29.9668</v>
       </c>
     </row>
     <row r="15">
@@ -761,16 +761,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9740532993917035</v>
+        <v>0.9740601048147353</v>
       </c>
       <c r="D15" t="n">
-        <v>29.55929163670526</v>
+        <v>29.55886036234379</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9757</v>
+        <v>0.975</v>
       </c>
       <c r="F15" t="n">
-        <v>30.0029</v>
+        <v>30.0026</v>
       </c>
     </row>
     <row r="16">
@@ -783,16 +783,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9738703867631205</v>
+        <v>0.9738772004839216</v>
       </c>
       <c r="D16" t="n">
-        <v>29.5609401473934</v>
+        <v>29.56050756558678</v>
       </c>
       <c r="E16" t="n">
-        <v>0.975</v>
+        <v>0.9743000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>29.992</v>
+        <v>29.9926</v>
       </c>
     </row>
     <row r="17">
@@ -805,16 +805,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9714760604795705</v>
+        <v>0.9714830144298983</v>
       </c>
       <c r="D17" t="n">
-        <v>29.58329120935229</v>
+        <v>29.58282653418424</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9719</v>
+        <v>0.9712</v>
       </c>
       <c r="F17" t="n">
-        <v>30.0032</v>
+        <v>30.003</v>
       </c>
     </row>
     <row r="18">
@@ -827,16 +827,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9710067185690846</v>
+        <v>0.9710137207108601</v>
       </c>
       <c r="D18" t="n">
-        <v>29.58750314066236</v>
+        <v>29.58702900607485</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9703000000000001</v>
+        <v>0.9696</v>
       </c>
       <c r="F18" t="n">
-        <v>29.9824</v>
+        <v>29.984</v>
       </c>
     </row>
     <row r="19">
@@ -849,16 +849,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9711847672237752</v>
+        <v>0.9711917221779645</v>
       </c>
       <c r="D19" t="n">
-        <v>29.58568580705944</v>
+        <v>29.58522093023345</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9713000000000001</v>
+        <v>0.9705</v>
       </c>
       <c r="F19" t="n">
-        <v>29.9952</v>
+        <v>29.9953</v>
       </c>
     </row>
     <row r="20">
@@ -871,16 +871,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9667037332515199</v>
+        <v>0.9667122234852344</v>
       </c>
       <c r="D20" t="n">
-        <v>29.42584692037768</v>
+        <v>29.42532072568056</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9653</v>
+        <v>0.9659</v>
       </c>
       <c r="F20" t="n">
-        <v>30.0012</v>
+        <v>30.0008</v>
       </c>
     </row>
     <row r="21">
@@ -893,16 +893,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9648965455736259</v>
+        <v>0.9649053206510023</v>
       </c>
       <c r="D21" t="n">
-        <v>29.4180498284826</v>
+        <v>29.4174950943476</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9635</v>
+        <v>0.9641</v>
       </c>
       <c r="F21" t="n">
-        <v>29.9997</v>
+        <v>29.9995</v>
       </c>
     </row>
     <row r="22">
@@ -915,16 +915,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9664931077957822</v>
+        <v>0.9665016089778371</v>
       </c>
       <c r="D22" t="n">
-        <v>29.42775872826556</v>
+        <v>29.42723082241818</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9648</v>
+        <v>0.9655</v>
       </c>
       <c r="F22" t="n">
-        <v>29.9961</v>
+        <v>29.9972</v>
       </c>
     </row>
     <row r="23">
@@ -937,16 +937,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9686310360357866</v>
+        <v>0.9686392031826067</v>
       </c>
       <c r="D23" t="n">
-        <v>29.43402251842494</v>
+        <v>29.43352862348862</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9671999999999999</v>
+        <v>0.9678</v>
       </c>
       <c r="F23" t="n">
-        <v>30.0014</v>
+        <v>30.0002</v>
       </c>
     </row>
     <row r="24">
@@ -959,16 +959,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9682096474191795</v>
+        <v>0.9682178474089123</v>
       </c>
       <c r="D24" t="n">
-        <v>29.4320439933645</v>
+        <v>29.43154632128718</v>
       </c>
       <c r="E24" t="n">
-        <v>0.965</v>
+        <v>0.9668</v>
       </c>
       <c r="F24" t="n">
-        <v>29.9826</v>
+        <v>29.9993</v>
       </c>
     </row>
     <row r="25">
@@ -981,16 +981,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9611289239330693</v>
+        <v>0.9611383124065676</v>
       </c>
       <c r="D25" t="n">
-        <v>29.41467101640198</v>
+        <v>29.41404149714652</v>
       </c>
       <c r="E25" t="n">
-        <v>0.959</v>
+        <v>0.9595</v>
       </c>
       <c r="F25" t="n">
-        <v>30.0052</v>
+        <v>30.0083</v>
       </c>
     </row>
     <row r="26">
@@ -1003,16 +1003,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9608631004545684</v>
+        <v>0.9608724950534766</v>
       </c>
       <c r="D26" t="n">
-        <v>29.41671992471088</v>
+        <v>29.41608971019862</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9581</v>
+        <v>0.9583</v>
       </c>
       <c r="F26" t="n">
-        <v>29.9911</v>
+        <v>29.9866</v>
       </c>
     </row>
     <row r="27">
@@ -1025,16 +1025,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9603474218165712</v>
+        <v>0.9603569472568562</v>
       </c>
       <c r="D27" t="n">
-        <v>29.42170793398594</v>
+        <v>29.4210515907283</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9559</v>
+        <v>0.9553</v>
       </c>
       <c r="F27" t="n">
-        <v>29.9634</v>
+        <v>29.9427</v>
       </c>
     </row>
     <row r="28">
@@ -1047,16 +1047,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9585844453560903</v>
+        <v>0.9585940595682791</v>
       </c>
       <c r="D28" t="n">
-        <v>29.39154774983766</v>
+        <v>29.39090984292467</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9574</v>
+        <v>0.9586</v>
       </c>
       <c r="F28" t="n">
-        <v>30.0015</v>
+        <v>30.0007</v>
       </c>
     </row>
     <row r="29">
@@ -1069,16 +1069,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9584405438927579</v>
+        <v>0.958450173813186</v>
       </c>
       <c r="D29" t="n">
-        <v>29.39092425619878</v>
+        <v>29.39028470881522</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9571</v>
+        <v>0.9585</v>
       </c>
       <c r="F29" t="n">
-        <v>29.9984</v>
+        <v>30.0012</v>
       </c>
     </row>
     <row r="30">
@@ -1091,16 +1091,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9583179195525826</v>
+        <v>0.9583275399564768</v>
       </c>
       <c r="D30" t="n">
-        <v>29.39360753738223</v>
+        <v>29.39296893393077</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9569</v>
+        <v>0.9581</v>
       </c>
       <c r="F30" t="n">
-        <v>29.9966</v>
+        <v>29.9973</v>
       </c>
     </row>
     <row r="31">
@@ -1113,16 +1113,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.975763436028235</v>
+        <v>0.9757697657743152</v>
       </c>
       <c r="D31" t="n">
-        <v>29.57535614397638</v>
+        <v>29.57497001850548</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9768</v>
+        <v>0.9761</v>
       </c>
       <c r="F31" t="n">
-        <v>29.9901</v>
+        <v>29.9908</v>
       </c>
     </row>
     <row r="32">
@@ -1135,16 +1135,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9729767897617903</v>
+        <v>0.9729840497728343</v>
       </c>
       <c r="D32" t="n">
-        <v>29.46552831366694</v>
+        <v>29.46512336021737</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9749</v>
+        <v>0.9727</v>
       </c>
       <c r="F32" t="n">
-        <v>30.0017</v>
+        <v>30.0104</v>
       </c>
     </row>
     <row r="33">
@@ -1157,16 +1157,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.962137104979677</v>
+        <v>0.9621463298905579</v>
       </c>
       <c r="D33" t="n">
-        <v>29.40658257267799</v>
+        <v>29.40598275523224</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9608</v>
+        <v>0.9615</v>
       </c>
       <c r="F33" t="n">
-        <v>30.0028</v>
+        <v>30.0033</v>
       </c>
     </row>
     <row r="34">
@@ -1179,16 +1179,16 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.959930321301362</v>
+        <v>0.9599397716136483</v>
       </c>
       <c r="D34" t="n">
-        <v>29.39735080092917</v>
+        <v>29.39672884681385</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9588</v>
+        <v>0.9597</v>
       </c>
       <c r="F34" t="n">
-        <v>30.0005</v>
+        <v>30.0003</v>
       </c>
     </row>
     <row r="35">
@@ -1201,16 +1201,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9590309840008968</v>
+        <v>0.9590405345349261</v>
       </c>
       <c r="D35" t="n">
-        <v>29.39361700864078</v>
+        <v>29.3929854208738</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9579</v>
+        <v>0.9589</v>
       </c>
       <c r="F35" t="n">
-        <v>30.0002</v>
+        <v>30.0003</v>
       </c>
     </row>
     <row r="36">
@@ -1223,16 +1223,16 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9725842632665408</v>
+        <v>0.9725915297809088</v>
       </c>
       <c r="D36" t="n">
-        <v>29.4690798818171</v>
+        <v>29.46867422021144</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9741</v>
+        <v>0.9715</v>
       </c>
       <c r="F36" t="n">
-        <v>29.994</v>
+        <v>29.9897</v>
       </c>
     </row>
     <row r="37">
@@ -1245,16 +1245,16 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9727993249878002</v>
+        <v>0.9728065918307963</v>
       </c>
       <c r="D37" t="n">
-        <v>29.46701259608561</v>
+        <v>29.46660637999487</v>
       </c>
       <c r="E37" t="n">
-        <v>0.975</v>
+        <v>0.9708</v>
       </c>
       <c r="F37" t="n">
-        <v>30.0057</v>
+        <v>29.9698</v>
       </c>
     </row>
   </sheetData>
